--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="13125"/>
+    <workbookView windowWidth="28695" windowHeight="13125" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="UPSLabel" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645">
   <si>
     <t>TestId</t>
   </si>
@@ -2046,18 +2046,101 @@
 </t>
   </si>
   <si>
+    <t>场景4</t>
+  </si>
+  <si>
+    <t>TestCCS_QQJ_004</t>
+  </si>
+  <si>
+    <t>{
+    "danbao_request": {
+        "update_time": 1447654250,
+        "handle_type": 3,
+        "json": {
+            "CardInfo": [
+                {
+                    "MaxReturnAmount": 1000
+                },
+                {
+                    "MaxReturnAmount": 2000
+                },
+                {
+                    "MaxReturnAmount": 5000
+                }
+            ],
+            "EnterpRegistrInfo": {
+                "EnterpRegistrCapital": 0,
+                "IsEnterprisLegalPerson": 0
+            },
+            "FamilyInfo": {
+                "IsHaveChildren": 0,
+                "MarriageType": 0
+            },
+            "LivingInfo": {
+                "AddressType": 1,
+                "LivingAddress": "null",
+                "LivingCity": "桂林市",
+                "LivingProvince": "广西壮族自治区"
+            },
+            "PostPhoneList": {
+                "AddressList": "[{\"phone\":\"13410979700\",\"name\":\"罗春0\",\"email\":\"\"},{\"phone\":\"13410979701\",\"name\":\"罗春1\",\"email\":\"\"},{\"phone\":\"13410979702\",\"name\":\"罗春2\",\"email\":\"\"},{\"phone\":\"13410979703\",\"name\":\"罗春3\",\"email\":\"\"},{\"phone\":\"13410979704\",\"name\":\"罗春4\",\"email\":\"\"},{\"phone\":\"13410979705\",\"name\":\"罗春5\",\"email\":\"\"},{\"phone\":\"134109749706\",\"name\":\"罗春6\",\"email\":\"\"},{\"phone\":\"13410979707\",\"name\":\"罗春7\",\"email\":\"\"},{\"phone\":\"13410979708\",\"name\":\"罗春8\",\"email\":\"\"},{\"phone\":\"13410979709\",\"name\":\"罗春9\",\"email\":\"\"},{\"phone\":\"13410979710\",\"name\":\"罗春10\",\"email\":\"\"},{\"phone\":\"13410979711\",\"name\":\"罗春11\",\"email\":\"\"},{\"phone\":\"13410979712\",\"name\":\"罗春12\",\"email\":\"\"},{\"phone\":\"13410979713\",\"name\":\"罗春13\",\"email\":\"\"},{\"phone\":\"13410979714\",\"name\":\"罗春14\",\"email\":\"\"},{\"phone\":\"13410979715\",\"name\":\"罗春15\",\"email\":\"\"},{\"phone\":\"13410979716\",\"name\":\"罗春16\",\"email\":\"\"},{\"phone\":\"13410979717\",\"name\":\"罗春17\",\"email\":\"\"},{\"phone\":\"13410979718\",\"name\":\"罗春18\",\"email\":\"\"},{\"phone\":\"13410979719\",\"name\":\"罗春19\",\"email\":\"\"},{\"phone\":\"13410979720\",\"name\":\"罗春20\",\"email\":\"\"},{\"phone\":\"13410979721\",\"name\":\"罗春21\",\"email\":\"\"},{\"phone\":\"13410979722\",\"name\":\"罗春22\",\"email\":\"\"},{\"phone\":\"13410979723\",\"name\":\"罗春23\",\"email\":\"\"},{\"phone\":\"13410979724\",\"name\":\"罗春24\",\"email\":\"\"},{\"phone\":\"13410979725\",\"name\":\"罗春25\",\"email\":\"\"},{\"phone\":\"13410979726\",\"name\":\"罗春26\",\"email\":\"\"},{\"phone\":\"13410979727\",\"name\":\"罗春27\",\"email\":\"\"},{\"phone\":\"13410979728\",\"name\":\"罗春28\",\"email\":\"\"},{\"phone\":\"13410979729\",\"name\":\"罗春29\",\"email\":\"\"},{\"phone\":\"13410979730\",\"name\":\"罗春30\",\"email\":\"\"},{\"phone\":\"13410979731\",\"name\":\"罗春31\",\"email\":\"\"},{\"phone\":\"13410979732\",\"name\":\"罗春32\",\"email\":\"\"},{\"phone\":\"13410979733\",\"name\":\"罗春33\",\"email\":\"\"},{\"phone\":\"13410979734\",\"name\":\"罗春34\",\"email\":\"\"},{\"phone\":\"13410979735\",\"name\":\"罗春35\",\"email\":\"\"},{\"phone\":\"13410979736\",\"name\":\"罗春36\",\"email\":\"\"},{\"phone\":\"13410979737\",\"name\":\"罗春37\",\"email\":\"\"},{\"phone\":\"13410979738\",\"name\":\"罗春38\",\"email\":\"\"},{\"phone\":\"13410979739\",\"name\":\"罗春39\",\"email\":\"\"},{\"phone\":\"13410979740\",\"name\":\"罗春40\",\"email\":\"\"},{\"phone\":\"13410979741\",\"name\":\"罗春41\",\"email\":\"\"},{\"phone\":\"13410979742\",\"name\":\"罗春42\",\"email\":\"\"},{\"phone\":\"13410979743\",\"name\":\"罗春43\",\"email\":\"\"},{\"phone\":\"13410979744\",\"name\":\"罗春44\",\"email\":\"\"},{\"phone\":\"13410979745\",\"name\":\"罗春45\",\"email\":\"\"},{\"phone\":\"13410979746\",\"name\":\"罗春46\",\"email\":\"\"},{\"phone\":\"13410979747\",\"name\":\"罗春47\",\"email\":\"\"},{\"phone\":\"13410979748\",\"name\":\"罗春48\",\"email\":\"\"},{\"phone\":\"13410979749\",\"name\":\"罗春49\",\"email\":\"\"},{\"phone\":\"13410979750\",\"name\":\"罗春50\",\"email\":\"\"},{\"phone\":\"13410979700\",\"name\":\"罗春0\",\"email\":\"\"},{\"phone\":\"13410979701\",\"name\":\"罗春1\",\"email\":\"\"},{\"phone\":\"13410979702\",\"name\":\"罗春2\",\"email\":\"\"},{\"phone\":\"13410979703\",\"name\":\"罗春3\",\"email\":\"\"},{\"phone\":\"13410979704\",\"name\":\"罗春4\",\"email\":\"\"},{\"phone\":\"13410979705\",\"name\":\"罗春5\",\"email\":\"\"},{\"phone\":\"134109749706\",\"name\":\"罗春6\",\"email\":\"\"},{\"phone\":\"13410979707\",\"name\":\"罗春7\",\"email\":\"\"},{\"phone\":\"13410979708\",\"name\":\"罗春8\",\"email\":\"\"},{\"phone\":\"13410979709\",\"name\":\"罗春9\",\"email\":\"\"},{\"phone\":\"13410979710\",\"name\":\"罗春10\",\"email\":\"\"},{\"phone\":\"13410979711\",\"name\":\"罗春11\",\"email\":\"\"},{\"phone\":\"13410979712\",\"name\":\"罗春12\",\"email\":\"\"},{\"phone\":\"13410979713\",\"name\":\"罗春13\",\"email\":\"\"},{\"phone\":\"13410979714\",\"name\":\"罗春14\",\"email\":\"\"},{\"phone\":\"13410979715\",\"name\":\"罗春15\",\"email\":\"\"},{\"phone\":\"13410979716\",\"name\":\"罗春16\",\"email\":\"\"},{\"phone\":\"13410979717\",\"name\":\"罗春17\",\"email\":\"\"},{\"phone\":\"13410979718\",\"name\":\"罗春18\",\"email\":\"\"},{\"phone\":\"13410979719\",\"name\":\"罗春19\",\"email\":\"\"},{\"phone\":\"13410979720\",\"name\":\"罗春20\",\"email\":\"\"},{\"phone\":\"13410979721\",\"name\":\"罗春21\",\"email\":\"\"},{\"phone\":\"13410979722\",\"name\":\"罗春22\",\"email\":\"\"},{\"phone\":\"13410979723\",\"name\":\"罗春23\",\"email\":\"\"},{\"phone\":\"13410979724\",\"name\":\"罗春24\",\"email\":\"\"},{\"phone\":\"13410979725\",\"name\":\"罗春25\",\"email\":\"\"},{\"phone\":\"13410979726\",\"name\":\"罗春26\",\"email\":\"\"},{\"phone\":\"13410979727\",\"name\":\"罗春27\",\"email\":\"\"},{\"phone\":\"13410979728\",\"name\":\"罗春28\",\"email\":\"\"},{\"phone\":\"13410979729\",\"name\":\"罗春29\",\"email\":\"\"},{\"phone\":\"13410979730\",\"name\":\"罗春30\",\"email\":\"\"},{\"phone\":\"13410979731\",\"name\":\"罗春31\",\"email\":\"\"},{\"phone\":\"13410979732\",\"name\":\"罗春32\",\"email\":\"\"},{\"phone\":\"13410979733\",\"name\":\"罗春33\",\"email\":\"\"},{\"phone\":\"13410979734\",\"name\":\"罗春34\",\"email\":\"\"},{\"phone\":\"13410979735\",\"name\":\"罗春35\",\"email\":\"\"},{\"phone\":\"13410979736\",\"name\":\"罗春36\",\"email\":\"\"},{\"phone\":\"13410979737\",\"name\":\"罗春37\",\"email\":\"\"},{\"phone\":\"13410979738\",\"name\":\"罗春38\",\"email\":\"\"},{\"phone\":\"13410979739\",\"name\":\"罗春39\",\"email\":\"\"},{\"phone\":\"13410979740\",\"name\":\"罗春40\",\"email\":\"\"},{\"phone\":\"13410979741\",\"name\":\"罗春41\",\"email\":\"\"},{\"phone\":\"13410979742\",\"name\":\"罗春42\",\"email\":\"\"},{\"phone\":\"13410979743\",\"name\":\"罗春43\",\"email\":\"\"},{\"phone\":\"13410979744\",\"name\":\"罗春44\",\"email\":\"\"},{\"phone\":\"13410979745\",\"name\":\"罗春45\",\"email\":\"\"},{\"phone\":\"13410979746\",\"name\":\"罗春46\",\"email\":\"\"},{\"phone\":\"13410979747\",\"name\":\"罗春47\",\"email\":\"\"},{\"phone\":\"13410979748\",\"name\":\"罗春48\",\"email\":\"\"},{\"phone\":\"13410979749\",\"name\":\"罗春49\",\"email\":\"\"},{\"phone\":\"13410979750\",\"name\":\"罗春100\",\"email\":\"\"}]",
+                "PhoneListDate": "20151012100943000001"
+            },
+            "PropertyInfo": {
+                "Car": 0,
+                "CarList": [],
+                "House": 1,
+                "HouseList": [
+                    {
+                        "HouseProvince": "广东省"
+                    },
+                    {
+                        "HouseCity": "东莞市"
+                    }
+                ]
+            },
+            "StudentCertification": {
+                "DegreeType": 2,
+                "EducationApplyType": 0,
+                "GraduateDate": "20110628000000000006",
+                "IsVerify": true
+            },
+            "StudentInfo": {},
+            "UserBasicInfo": {
+                "IdentityCard": "360121198401011102",
+                "IsDCredit": 1,
+                "IsJCredit": 0,
+                "Istuandai": 0,
+                "RealName": "微担保用户",
+                "RegisterTime": "20151009143853000005",
+                "Sex": 2,
+                "TelNo": "13110979724",
+                "UserId": "360121af-1fef-44f9-84b9-72cb19cad102",
+                "UserStatus": 33,
+                "UserType": 1
+            },
+            "WorkInfo": {
+                "Income": 0,
+                "IncomeTypeId": 20,
+                "PositionLevel": 2,
+                "CompanyProvince": "广东省",
+                "CompanyCity": "深圳市",
+                "WorkYears": 1
+            }
+        }
+    }
+}</t>
+  </si>
+  <si>
     <t xml:space="preserve">{
-  "friend_history":  {
-    "userid":"c01980ca-c557-4382-9e34-93b79a3a9d66",
-    "identity_card":"022003196101170001",
-    "real_name":"C用户",
-    "moble_phone":"13600000003",
+  "weidanbao_history":  {
+    "identity_card":"360121198401011102",
+    "real_name":"微担保用户",
+    "moble_phone":"13110979724",
     "is_success":1,
-    "add_friend":2000,
-    "friend_list":"a01980ca-c557-4382-9e34-93b79a3a9d66;"
+    "cur_credit":254800
   },
-  "sum_info":  {
-    "iAddFriend":2000
+  "sum_info":  {"error_info":"成功"
   }
 }
 </t>
@@ -2069,9 +2152,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -3141,10 +3224,10 @@
   <sheetPr/>
   <dimension ref="A1:I361"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8523,7 +8606,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9146,11 +9229,11 @@
     </row>
   </sheetData>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E156">
+      <formula1>"数据回流接口,用户属性标签,用户行为标签,用户画像接口"</formula1>
+    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="TestId数据已经存在" error="TestId需要唯一值！" sqref="A1 A2 A3 A4 A5 A6:A7 A8:A10 A11:A16 A17:A24">
       <formula1>COUNTIF($1:$65400,A1)=1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E156">
-      <formula1>"数据回流接口,用户属性标签,用户行为标签,用户画像接口"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E24">
       <formula1>"数据回流接口,用户画像标签,用户画像接口,反欺诈接口,授信接口,量化数据接口"</formula1>
@@ -9170,7 +9253,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9374,9 +9457,9 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9543,15 +9626,15 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="13.875" customWidth="1"/>
@@ -9667,12 +9750,38 @@
         <v>640</v>
       </c>
       <c r="H4" s="4" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="5" ht="409.5" spans="1:8">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>641</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="D5" t="s">
+        <v>631</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="F5" t="s">
+        <v>633</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>644</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E3:E4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E3 E4:E5">
       <formula1>"数据回流接口,用户画像标签,用户画像接口,反欺诈接口,授信接口,量化数据接口"</formula1>
     </dataValidation>
   </dataValidations>
